--- a/biology/Zoologie/Alopoglossus_buckleyi/Alopoglossus_buckleyi.xlsx
+++ b/biology/Zoologie/Alopoglossus_buckleyi/Alopoglossus_buckleyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alopoglossus buckleyi est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alopoglossus buckleyi est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Amazonie entre 210 et 1 830 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Amazonie entre 210 et 1 830 m d'altitude :
 en Colombie dans le département d'Amazonas ;
 dans l'est de l'Équateur ;
 au Pérou dans la région de Loreto ;
@@ -547,9 +561,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Clarence Buckley (1839-1889)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Clarence Buckley (1839-1889).
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>O'Shaughnessy, 1881 : An account of the collection of lizards made by Mr. Buckley in Ecuador, and now in the British Museum, with descritions of the new species. Proceedings of the Zoological Society of London, vol. 1881, p. 227-245 (texte intégral).</t>
         </is>
